--- a/data/output/FV2504_FV2410/ORDRSP/19123.xlsx
+++ b/data/output/FV2504_FV2410/ORDRSP/19123.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="178">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1460" uniqueCount="178">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -675,6 +675,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U67" totalsRowShown="0">
+  <autoFilter ref="A1:U67"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -964,7 +994,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -4156,5 +4189,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/ORDRSP/19123.xlsx
+++ b/data/output/FV2504_FV2410/ORDRSP/19123.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1768" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1756" uniqueCount="245">
   <si>
     <t>#</t>
   </si>
@@ -4103,44 +4103,42 @@
       <c r="V56" s="9"/>
     </row>
     <row r="57" spans="1:22">
-      <c r="A57" s="5" t="s">
+      <c r="A57" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D57" s="5"/>
-      <c r="E57" s="5"/>
-      <c r="F57" s="5"/>
-      <c r="G57" s="5"/>
-      <c r="H57" s="5"/>
-      <c r="I57" s="5"/>
-      <c r="J57" s="5" t="s">
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57" s="2"/>
+      <c r="J57" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="K57" s="5"/>
-      <c r="L57" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="M57" s="5" t="s">
+      <c r="K57" s="2"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N57" s="5" t="s">
+      <c r="N57" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="O57" s="5"/>
-      <c r="P57" s="5"/>
-      <c r="Q57" s="5"/>
-      <c r="R57" s="5"/>
-      <c r="S57" s="5"/>
-      <c r="T57" s="5"/>
-      <c r="U57" s="5" t="s">
+      <c r="O57" s="2"/>
+      <c r="P57" s="2"/>
+      <c r="Q57" s="2"/>
+      <c r="R57" s="2"/>
+      <c r="S57" s="2"/>
+      <c r="T57" s="2"/>
+      <c r="U57" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="V57" s="5"/>
+      <c r="V57" s="2"/>
     </row>
     <row r="58" spans="1:22">
       <c r="A58" s="5" t="s">
@@ -4166,9 +4164,7 @@
         <v>143</v>
       </c>
       <c r="K58" s="5"/>
-      <c r="L58" s="7" t="s">
-        <v>170</v>
-      </c>
+      <c r="L58" s="4"/>
       <c r="M58" s="5" t="s">
         <v>34</v>
       </c>
@@ -4216,9 +4212,7 @@
         <v>159</v>
       </c>
       <c r="K59" s="5"/>
-      <c r="L59" s="7" t="s">
-        <v>170</v>
-      </c>
+      <c r="L59" s="4"/>
       <c r="M59" s="5" t="s">
         <v>34</v>
       </c>
@@ -4272,9 +4266,7 @@
       <c r="K60" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="L60" s="7" t="s">
-        <v>170</v>
-      </c>
+      <c r="L60" s="4"/>
       <c r="M60" s="5" t="s">
         <v>34</v>
       </c>
@@ -4332,9 +4324,7 @@
         <v>144</v>
       </c>
       <c r="K61" s="5"/>
-      <c r="L61" s="7" t="s">
-        <v>170</v>
-      </c>
+      <c r="L61" s="4"/>
       <c r="M61" s="5" t="s">
         <v>34</v>
       </c>
@@ -4390,9 +4380,7 @@
         <v>144</v>
       </c>
       <c r="K62" s="5"/>
-      <c r="L62" s="7" t="s">
-        <v>170</v>
-      </c>
+      <c r="L62" s="4"/>
       <c r="M62" s="5" t="s">
         <v>34</v>
       </c>

--- a/data/output/FV2504_FV2410/ORDRSP/19123.xlsx
+++ b/data/output/FV2504_FV2410/ORDRSP/19123.xlsx
@@ -1333,7 +1333,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -1697,7 +1697,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -1843,7 +1843,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2045,7 +2045,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -2247,7 +2247,7 @@
         <v>163</v>
       </c>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2" t="s">
@@ -2451,7 +2451,7 @@
         <v>165</v>
       </c>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -2653,7 +2653,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -2853,7 +2853,7 @@
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N32" s="2" t="s">
@@ -3051,7 +3051,7 @@
         <v>168</v>
       </c>
       <c r="L36" s="4"/>
-      <c r="M36" s="2" t="s">
+      <c r="M36" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N36" s="2" t="s">
@@ -3199,7 +3199,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3507,7 +3507,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -3699,7 +3699,7 @@
       </c>
       <c r="K49" s="2"/>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -4123,7 +4123,7 @@
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -4407,48 +4407,48 @@
       <c r="V62" s="5"/>
     </row>
     <row r="63" spans="1:22">
-      <c r="A63" s="5" t="s">
+      <c r="A63" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B63" s="5" t="s">
+      <c r="B63" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5" t="s">
+      <c r="C63" s="2"/>
+      <c r="D63" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E63" s="5"/>
+      <c r="E63" s="2"/>
       <c r="F63" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="G63" s="5"/>
-      <c r="H63" s="5"/>
-      <c r="I63" s="5"/>
-      <c r="J63" s="5" t="s">
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="K63" s="5"/>
+      <c r="K63" s="2"/>
       <c r="L63" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="M63" s="5" t="s">
+      <c r="M63" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N63" s="5"/>
-      <c r="O63" s="5" t="s">
+      <c r="N63" s="2"/>
+      <c r="O63" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="P63" s="5"/>
+      <c r="P63" s="2"/>
       <c r="Q63" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="R63" s="5"/>
-      <c r="S63" s="5"/>
-      <c r="T63" s="5"/>
-      <c r="U63" s="5" t="s">
+      <c r="R63" s="2"/>
+      <c r="S63" s="2"/>
+      <c r="T63" s="2"/>
+      <c r="U63" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="V63" s="5"/>
+      <c r="V63" s="2"/>
     </row>
     <row r="64" spans="1:22">
       <c r="A64" s="5" t="s">
@@ -4503,48 +4503,48 @@
       <c r="V64" s="5"/>
     </row>
     <row r="65" spans="1:22">
-      <c r="A65" s="5" t="s">
+      <c r="A65" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B65" s="5" t="s">
+      <c r="B65" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C65" s="5"/>
-      <c r="D65" s="5" t="s">
+      <c r="C65" s="2"/>
+      <c r="D65" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="E65" s="5"/>
+      <c r="E65" s="2"/>
       <c r="F65" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="G65" s="5"/>
-      <c r="H65" s="5"/>
-      <c r="I65" s="5"/>
-      <c r="J65" s="5" t="s">
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="K65" s="5"/>
+      <c r="K65" s="2"/>
       <c r="L65" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="M65" s="5" t="s">
+      <c r="M65" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="N65" s="5"/>
-      <c r="O65" s="5" t="s">
+      <c r="N65" s="2"/>
+      <c r="O65" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P65" s="5"/>
+      <c r="P65" s="2"/>
       <c r="Q65" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="R65" s="5"/>
-      <c r="S65" s="5"/>
-      <c r="T65" s="5"/>
-      <c r="U65" s="5" t="s">
+      <c r="R65" s="2"/>
+      <c r="S65" s="2"/>
+      <c r="T65" s="2"/>
+      <c r="U65" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="V65" s="5"/>
+      <c r="V65" s="2"/>
     </row>
     <row r="66" spans="1:22">
       <c r="A66" s="5" t="s">
